--- a/REVER_DailyTracker_Mamatha_October.xlsx
+++ b/REVER_DailyTracker_Mamatha_October.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CBB640-FD3E-4BF7-ABF6-AF164404FFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4B1E4-7CF2-4E62-A72D-7D4342E26264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="112">
   <si>
     <t>Task</t>
   </si>
@@ -359,6 +359,27 @@
   </si>
   <si>
     <t>To get latitude and longitude of customer and technicican API is done</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Some fixes in APIS</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t> For Services Login,now we are able to get the Push notification for this user also,accept is also working.To display the all the service request to all the service center is </t>
+  </si>
+  <si>
+    <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>Rlogic-GL and PL</t>
+  </si>
+  <si>
+    <t>Worked on environment ready for demo.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +437,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF262626"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,13 +557,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -635,8 +678,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
@@ -2163,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2536,7 +2589,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1"/>
+    <row r="19" spans="1:6" s="4" customFormat="1">
+      <c r="A19" s="47">
+        <v>18</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="46">
+        <v>1</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57.6">
+      <c r="A20" s="47">
+        <v>19</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="47">
+        <v>20</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="D23" s="53"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="D25" s="54"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Mamatha_October.xlsx
+++ b/REVER_DailyTracker_Mamatha_October.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4B1E4-7CF2-4E62-A72D-7D4342E26264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4274A167-1121-4B98-BA60-6E71A4466246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>Worked on environment ready for demo.</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>Jobs display for services login,not showing</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -686,6 +692,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2218,14 +2239,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B12" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="60" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
@@ -2237,7 +2258,7 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="58" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2260,7 +2281,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="56">
         <v>43840</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2281,7 +2302,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="56">
         <v>43961</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2302,7 +2323,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="57">
         <v>43992</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2322,7 +2343,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="57">
         <v>44022</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2342,7 +2363,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="57">
         <v>44053</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2362,7 +2383,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="57">
         <v>44084</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2373,7 +2394,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="57">
         <v>44175</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2393,7 +2414,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="57" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2413,7 +2434,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="57" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2433,7 +2454,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="57" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2453,7 +2474,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2473,7 +2494,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="57" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2493,7 +2514,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="57" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2513,7 +2534,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="57" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2533,7 +2554,7 @@
       <c r="A16" s="47">
         <v>15</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="59" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="47" t="s">
@@ -2553,7 +2574,7 @@
       <c r="A17" s="47">
         <v>16</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="59" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="47" t="s">
@@ -2573,7 +2594,7 @@
       <c r="A18" s="47">
         <v>17</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="59" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="47" t="s">
@@ -2593,7 +2614,7 @@
       <c r="A19" s="47">
         <v>18</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="59" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -2613,7 +2634,7 @@
       <c r="A20" s="47">
         <v>19</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="59" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -2633,7 +2654,7 @@
       <c r="A21" s="47">
         <v>20</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="59" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="47" t="s">
@@ -2647,6 +2668,26 @@
       </c>
       <c r="F21" s="47" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="47">
+        <v>21</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
